--- a/基础后台数据字典数据项列表.xlsx
+++ b/基础后台数据字典数据项列表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="128">
   <si>
     <t>标识符</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,32 +111,10 @@
     <t>0：正常，1：已停用</t>
   </si>
   <si>
-    <t>FRAME_ID</t>
-  </si>
-  <si>
     <t>用户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>部门编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FR001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JOB_ID</t>
-  </si>
-  <si>
-    <t>岗位编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JO001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>英文名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -446,6 +424,16 @@
   <si>
     <t>0：模块，1：子模块，2：页面，3：功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_ID</t>
+  </si>
+  <si>
+    <t>US009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工工号</t>
   </si>
 </sst>
 </file>
@@ -499,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +505,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -823,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -838,12 +829,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -864,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -951,319 +942,315 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D33" s="6"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="D34" s="6"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
@@ -1273,261 +1260,255 @@
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="A43" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
+      <c r="A44" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="A50" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>3</v>
+      <c r="A51" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>128</v>
-      </c>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="A59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="A60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>97</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A66" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A58:D58"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
